--- a/biology/Écologie/Hammock/Hammock.xlsx
+++ b/biology/Écologie/Hammock/Hammock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hammocks sont des boisements naturels denses formés d'arbres feuillus qui se sont développés dans un environnement marécageux en se surélevant par rapport au niveau habituel d'inondation sur leur propre accumulation (un atterrissement) de litière forestière. Ils caractérisent certaines zones de marais de la côte est des États-Unis. Ils sont souvent dominés par diverses espèces de chênes.
  Portail de l’écologie   Portail du bois et de la forêt                    </t>
